--- a/data/trans_dic/iP30A7_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A7_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>79,13%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>80,23%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,35; 92,2</t>
+          <t>44,75; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>89,45; 95,8</t>
+          <t>56,21; 95,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,15; 92,95</t>
+          <t>62,42; 92,15</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>89,94%</t>
+          <t>88,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>93,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>90,56%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,15; 93,51</t>
+          <t>82,35; 92,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,37; 94,62</t>
+          <t>89,45; 95,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,71; 93,37</t>
+          <t>87,15; 92,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79,13%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81,01%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>83,29%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,75; 100,0</t>
+          <t>76,6; 90,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56,21; 95,4</t>
+          <t>66,61; 88,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,42; 92,15</t>
+          <t>75,09; 87,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>89,94%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>91,75%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>83,29%</t>
+          <t>90,84%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,6; 90,17</t>
+          <t>85,15; 93,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>66,61; 88,28</t>
+          <t>87,37; 94,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,09; 87,68</t>
+          <t>87,71; 93,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A7_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30A7_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,21; 93,76</t>
+          <t>78,88; 93,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,43; 96,83</t>
+          <t>87,97; 96,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,38; 94,37</t>
+          <t>85,52; 94,29</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,35; 92,2</t>
+          <t>82,7; 92,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,45; 95,8</t>
+          <t>89,78; 95,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,15; 92,95</t>
+          <t>87,05; 93,02</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>76,6; 90,17</t>
+          <t>76,47; 90,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66,61; 88,28</t>
+          <t>65,39; 88,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,09; 87,68</t>
+          <t>75,25; 87,62</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,15; 93,51</t>
+          <t>85,32; 93,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,37; 94,62</t>
+          <t>87,63; 94,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>87,71; 93,37</t>
+          <t>87,61; 93,27</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>84,82; 90,11</t>
+          <t>85,07; 90,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,98; 91,87</t>
+          <t>85,16; 91,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,98; 90,49</t>
+          <t>86,25; 90,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
